--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/20/seed1/result_data_RandomForest.xlsx
@@ -491,10 +491,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.24399999999999</v>
+        <v>-12.5955</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.874600000000002</v>
+        <v>-8.138800000000005</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.85939999999999</v>
+        <v>-11.64549999999999</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -533,7 +533,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.2176</v>
+        <v>-12.76640000000001</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -547,10 +547,10 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.37689999999999</v>
+        <v>-10.6216</v>
       </c>
       <c r="D8" t="n">
-        <v>-9.111400000000003</v>
+        <v>-7.262900000000005</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +564,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.199899999999991</v>
+        <v>-7.27159999999999</v>
       </c>
     </row>
     <row r="10">
@@ -606,7 +606,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.723</v>
+        <v>-5.893699999999999</v>
       </c>
     </row>
     <row r="13">
@@ -659,7 +659,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-14.63559999999999</v>
+        <v>-14.18869999999999</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -676,7 +676,7 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.508899999999993</v>
+        <v>-8.2303</v>
       </c>
     </row>
     <row r="18">
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-9.280799999999994</v>
+        <v>-9.221699999999993</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.327099999999996</v>
+        <v>-8.257099999999996</v>
       </c>
     </row>
     <row r="20">
@@ -715,10 +715,10 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.9469</v>
+        <v>-11.504</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.534799999999997</v>
+        <v>-7.935499999999999</v>
       </c>
     </row>
     <row r="21">
@@ -729,7 +729,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.4652</v>
+        <v>-13.4378</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.472600000000003</v>
+        <v>-7.4472</v>
       </c>
     </row>
     <row r="27">
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.1869</v>
+        <v>-13.1473</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -841,7 +841,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.5935</v>
+        <v>-11.5242</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -855,7 +855,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.9095</v>
+        <v>-12.7814</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -872,7 +872,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.050999999999993</v>
+        <v>-7.079299999999992</v>
       </c>
     </row>
     <row r="32">
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-11.72899999999999</v>
+        <v>-11.65049999999999</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -984,7 +984,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.425499999999989</v>
+        <v>-8.074199999999998</v>
       </c>
     </row>
     <row r="40">
@@ -995,10 +995,10 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.01470000000001</v>
+        <v>-11.3812</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.344899999999997</v>
+        <v>-7.866899999999998</v>
       </c>
     </row>
     <row r="41">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.054599999999995</v>
+        <v>-7.806199999999995</v>
       </c>
     </row>
     <row r="42">
@@ -1026,7 +1026,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.428299999999993</v>
+        <v>-8.212399999999992</v>
       </c>
     </row>
     <row r="43">
@@ -1040,7 +1040,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.184600000000005</v>
+        <v>-7.298900000000006</v>
       </c>
     </row>
     <row r="44">
@@ -1079,7 +1079,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.71189999999998</v>
+        <v>-14.64229999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.676700000000003</v>
+        <v>-7.687800000000006</v>
       </c>
     </row>
     <row r="48">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.156599999999997</v>
+        <v>-7.120999999999994</v>
       </c>
     </row>
     <row r="49">
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.80439999999999</v>
+        <v>-11.9547</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.1086</v>
+        <v>-10.644</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1194,7 +1194,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.906100000000001</v>
+        <v>-7.838499999999998</v>
       </c>
     </row>
     <row r="55">
@@ -1233,7 +1233,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.4127</v>
+        <v>-14.4335</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1261,7 +1261,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-13.01170000000001</v>
+        <v>-13.16260000000001</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1303,10 +1303,10 @@
         <v>4.28</v>
       </c>
       <c r="C62" t="n">
-        <v>-14.34049999999999</v>
+        <v>-14.0828</v>
       </c>
       <c r="D62" t="n">
-        <v>-9.167699999999991</v>
+        <v>-9.35479999999999</v>
       </c>
     </row>
     <row r="63">
@@ -1320,7 +1320,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-6.379299999999994</v>
+        <v>-6.555199999999996</v>
       </c>
     </row>
     <row r="64">
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-6.963599999999992</v>
+        <v>-6.977899999999996</v>
       </c>
     </row>
     <row r="65">
@@ -1359,7 +1359,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.12420000000001</v>
+        <v>-11.3673</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.3827</v>
+        <v>-11.88010000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1471,7 +1471,7 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-11.9679</v>
+        <v>-11.7216</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
@@ -1502,7 +1502,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.959200000000002</v>
+        <v>-7.632000000000001</v>
       </c>
     </row>
     <row r="77">
@@ -1513,7 +1513,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-12.5503</v>
+        <v>-12.757</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1572,7 +1572,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.545099999999999</v>
+        <v>-7.521199999999998</v>
       </c>
     </row>
     <row r="82">
@@ -1614,7 +1614,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.386500000000003</v>
+        <v>-8.0053</v>
       </c>
     </row>
     <row r="85">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.145499999999993</v>
+        <v>-8.204999999999993</v>
       </c>
     </row>
     <row r="90">
@@ -1723,7 +1723,7 @@
         <v>4.82</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.5427</v>
+        <v>-10.6655</v>
       </c>
       <c r="D92" t="n">
         <v>-6.84</v>
@@ -1754,7 +1754,7 @@
         <v>-9.49</v>
       </c>
       <c r="D94" t="n">
-        <v>-5.7045</v>
+        <v>-5.926299999999999</v>
       </c>
     </row>
     <row r="95">
@@ -1835,7 +1835,7 @@
         <v>4.73</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.2507</v>
+        <v>-11.92689999999999</v>
       </c>
       <c r="D100" t="n">
         <v>-9.33</v>
